--- a/biology/Botanique/Eragrostideae/Eragrostideae.xlsx
+++ b/biology/Botanique/Eragrostideae/Eragrostideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eragrostideae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire des régions tropicales et subtropicales.
 Cette tribu, l'une des cinq qui constituent la sous-famille des Chloridoideae, est elle-même subdivisée en trois sous-tribus : Eragrostidinae, Unioliinae et Cotteinae, regroupant 20 genres et 488 espèces.
-Les études les plus récentes montrent que les Eragrostideae constituent un clade monophylétique, ou peut-être paraphylétique étant donné que d'autres genres semblent en dériver[2].
-Le genre-type est Eragrostis Wolfe[3].
-Elle inclut notamment le teff (Eragrostis tef (Zucc.) Trotter,) céréale secondaire largement cultivé en Afrique, dont le grain renferme les huit acides aminés essentiels à l'homme[2].
+Les études les plus récentes montrent que les Eragrostideae constituent un clade monophylétique, ou peut-être paraphylétique étant donné que d'autres genres semblent en dériver.
+Le genre-type est Eragrostis Wolfe.
+Elle inclut notamment le teff (Eragrostis tef (Zucc.) Trotter,) céréale secondaire largement cultivé en Afrique, dont le grain renferme les huit acides aminés essentiels à l'homme.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste des sous-tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Soreng et al.[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Soreng et al. :
 sous-tribu des Cotteinae Reeder (1965)
 Cottea
 Enneapogon
